--- a/data/spring-cloud-shop/shop-risk-model_structure.xlsx
+++ b/data/spring-cloud-shop/shop-risk-model_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="75">
   <si>
     <t>Class Name</t>
   </si>
@@ -1001,7 +1001,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1056,10 +1056,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -1067,7 +1067,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>73</v>
@@ -1078,7 +1078,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>73</v>
@@ -1089,7 +1089,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>73</v>
@@ -1100,7 +1100,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>73</v>
@@ -1111,7 +1111,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>73</v>
@@ -1122,7 +1122,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>73</v>
@@ -1130,13 +1130,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13">
@@ -1144,10 +1144,10 @@
         <v>24</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
@@ -1155,10 +1155,10 @@
         <v>24</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15">
@@ -1166,10 +1166,10 @@
         <v>24</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
@@ -1177,10 +1177,10 @@
         <v>24</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17">
@@ -1188,7 +1188,7 @@
         <v>24</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>73</v>
@@ -1199,7 +1199,7 @@
         <v>24</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>73</v>
@@ -1210,7 +1210,7 @@
         <v>24</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>73</v>
@@ -1221,7 +1221,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>73</v>
@@ -1232,7 +1232,7 @@
         <v>24</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>73</v>
@@ -1240,21 +1240,21 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>73</v>
@@ -1265,10 +1265,10 @@
         <v>29</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25">
@@ -1276,7 +1276,7 @@
         <v>29</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>73</v>
@@ -1287,10 +1287,10 @@
         <v>29</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27">
@@ -1298,10 +1298,10 @@
         <v>29</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28">
@@ -1309,7 +1309,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>73</v>
@@ -1320,7 +1320,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>73</v>
@@ -1331,7 +1331,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>73</v>
@@ -1342,9 +1342,42 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B34" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="C31" t="s" s="0">
+      <c r="C34" t="s" s="0">
         <v>73</v>
       </c>
     </row>
@@ -1477,13 +1510,13 @@
         <v>24</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>53</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -1505,13 +1538,13 @@
         <v>24</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>15</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
@@ -1519,13 +1552,13 @@
         <v>29</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1533,13 +1566,13 @@
         <v>29</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>53</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -1547,13 +1580,13 @@
         <v>29</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13">
@@ -1561,13 +1594,13 @@
         <v>29</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
